--- a/biology/Zoologie/Chira_spinosa/Chira_spinosa.xlsx
+++ b/biology/Zoologie/Chira_spinosa/Chira_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chira spinosa est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chira spinosa est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, en Argentine, en Bolivie, au Brésil, au Panama et au Honduras[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, en Argentine, en Bolivie, au Brésil, au Panama et au Honduras.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,5 mm.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ilarginus spinosus par Mello-Leitão en 1939. Elle est placée dans le genre Chira par Galiano en 1961[3].
-Phiale cincta[4], Alfenus aurantius[5] et Chira bicirculigera[6] ont été placées en synonymie par Galiano en 1961[3].
-Anaurus trimaculatus[7] et Akela aurantiovittata[5] ont été placées en synonymie par Galiano en 1968[8].
-Chira distincta[9] a été placée en synonymie par Marta, Almeida, Valiati, Brescovit et Rodrigues en 2024[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ilarginus spinosus par Mello-Leitão en 1939. Elle est placée dans le genre Chira par Galiano en 1961.
+Phiale cincta, Alfenus aurantius et Chira bicirculigera ont été placées en synonymie par Galiano en 1961.
+Anaurus trimaculatus et Akela aurantiovittata ont été placées en synonymie par Galiano en 1968.
+Chira distincta a été placée en synonymie par Marta, Almeida, Valiati, Brescovit et Rodrigues en 2024.
 Il ne faut pas confondre cette espèce avec Chira spinosa Mello-Leitão, 1945 actuellement Saitis spinosus (Mello-Leitão, 1945).
 </t>
         </is>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1939 : « Araignées américaines du Musée d'histoire naturelle de Bâle. » Revue suisse de zoologie, vol. 46, no 2, p. 43-93.</t>
         </is>
